--- a/SP_Sklad/Rep/nakladnaMaked.xlsx
+++ b/SP_Sklad/Rep/nakladnaMaked.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -19,12 +18,12 @@
     <definedName name="WayBillItems">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t xml:space="preserve">ВИГОТОВЛЕННЯ ПРОДУКЦІЇ </t>
   </si>
@@ -92,7 +91,7 @@
     <t>Софієвські 1.с". Сардельки</t>
   </si>
   <si>
-    <t>Яловичина  1 сотру</t>
+    <t xml:space="preserve">Яловичина  1 сотру</t>
   </si>
   <si>
     <t>кг.</t>
@@ -131,12 +130,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-FC22]d mmmm yyyy&quot; р.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -267,34 +266,22 @@
     </fill>
   </fills>
   <borders count="24">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color indexed="55"/>
       </left>
-      <right/>
       <top style="thin">
         <color indexed="55"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
       <right style="thin">
         <color indexed="55"/>
       </right>
       <top style="thin">
         <color indexed="55"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -306,30 +293,22 @@
       <top style="hair">
         <color indexed="55"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="55"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
       <right style="thin">
         <color indexed="55"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -338,20 +317,14 @@
       <right style="hair">
         <color indexed="55"/>
       </right>
-      <top/>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+    </border>
+    <border>
       <top style="thin">
         <color indexed="55"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -363,17 +336,11 @@
       <top style="thin">
         <color indexed="55"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thin">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -382,62 +349,49 @@
       <right style="thin">
         <color indexed="55"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="55"/>
       </left>
-      <right/>
       <top style="thin">
         <color indexed="55"/>
       </top>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+    </border>
+    <border>
       <top style="thin">
         <color indexed="55"/>
       </top>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
         <color indexed="55"/>
       </left>
-      <right/>
       <top style="hair">
         <color indexed="55"/>
       </top>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+    </border>
+    <border>
       <top style="hair">
         <color indexed="55"/>
       </top>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
       <right style="hair">
         <color indexed="55"/>
       </right>
@@ -447,7 +401,6 @@
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -462,34 +415,27 @@
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="55"/>
       </left>
-      <right/>
       <top style="thin">
         <color indexed="55"/>
       </top>
       <bottom style="thin">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+    </border>
+    <border>
       <top style="thin">
         <color indexed="55"/>
       </top>
       <bottom style="thin">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
       <right style="hair">
         <color indexed="55"/>
       </right>
@@ -499,25 +445,16 @@
       <bottom style="thin">
         <color indexed="55"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="55"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
       <right style="thin">
         <color indexed="55"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -526,24 +463,17 @@
       <right style="thin">
         <color indexed="55"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+    </border>
+    <border>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -556,17 +486,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,19 +608,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -603,138 +653,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -803,14 +724,8 @@
       <rgbColor rgb="00993300"/>
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -819,10 +734,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -954,6 +869,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -977,6 +893,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1071,6 +988,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1090,43 +1008,41 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.9999999" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.71" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.57" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.29" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.86" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.14" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+    <row r="1" ht="30.75" customHeight="1">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="3" t="str">
         <f>CONCATENATE("("&amp;"Софієвські 1.с"". Сардельки"," )")</f>
         <v>(Софієвські 1.с". Сардельки )</v>
@@ -1135,19 +1051,19 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="str">
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="5" t="str">
         <f>CONCATENATE("за рецептом ","Test")</f>
         <v>за рецептом Test</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
@@ -1156,12 +1072,12 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
@@ -1169,491 +1085,511 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
+    <row r="5" ht="21" customHeight="1">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="38">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14">
         <v>42623.973981365736</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="38" t="str">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="str">
         <f>IF(D6 &lt; "","","")</f>
         <v/>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="B12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="40">
+      <c r="C12" s="13"/>
+      <c r="D12" s="20">
         <v>11</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="43" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="40">
+      <c r="C14" s="13"/>
+      <c r="D14" s="20">
         <v>8</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="43" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="B16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="57">
+      <c r="C16" s="13"/>
+      <c r="D16" s="22">
         <f>D14/D12</f>
         <v>0.72727272727272729</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="59">
+      <c r="C18" s="13"/>
+      <c r="D18" s="24">
         <v>110</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="61">
+      <c r="C20" s="13"/>
+      <c r="D20" s="26">
         <v>10</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="43" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="40" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="D24" s="28"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="D25" s="28"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="B26" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34" t="s">
+      <c r="C26" s="30"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="47" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="48"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="B29" s="39">
         <v>1</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="40">
         <v>2</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="11">
+      <c r="D29" s="41"/>
+      <c r="E29" s="39">
         <v>3</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="39">
         <v>4</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="39">
         <v>5</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="39">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="65" t="s">
+    <row r="30" ht="13.5" customHeight="1">
+      <c r="B30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45">
         <v>11</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="14">
+      <c r="G30" s="44"/>
+      <c r="H30" s="46">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16">
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48">
         <v>1</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="51">
         <v>11</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="52">
         <v>10</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="52">
         <f>F31*G31</f>
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="55" t="s">
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="F32" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="20">
+      <c r="G32" s="54"/>
+      <c r="H32" s="55">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="21" t="s">
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="B34" s="56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="34" t="s">
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="B35" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="47" t="s">
+      <c r="F35" s="32"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="51"/>
-    </row>
-    <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="16">
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="B37" s="48">
         <v>1</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="61">
         <v>42624.527934340273</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="19">
+      <c r="F37" s="50"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="52">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="23" t="s">
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="C39" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1">
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+    </row>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1">
       <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1">
       <c r="C48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="E35:G36"/>
     <mergeCell ref="F32:G32"/>
@@ -1670,30 +1606,10 @@
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="E37:G37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.1965278" right="0.1965278" top="0.1965278" bottom="0.39374999999999999" header="0.51180550000000002" footer="0.1965278"/>
+  <pageMargins left="0.1965278" right="0.1965278" top="0.1965278" bottom="0.39375" header="0.5118055" footer="0.1965278"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CСторінка &amp;P из &amp;N</oddFooter>
